--- a/doc/05.ログイン用アカウント情報.xlsx
+++ b/doc/05.ログイン用アカウント情報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED8269-0F65-465C-93E8-69A3348C0007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E4607-7C17-4E7E-859A-AB17DFD8E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{9BFAB7CD-43AD-4217-9473-D5734A3D7610}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="3" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>田中太郎</t>
   </si>
@@ -307,26 +297,6 @@
   </si>
   <si>
     <t>上司次郎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>k1000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>k1001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>k1002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>k1003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>k1004</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -757,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2772F12B-6AF1-4F35-8B1B-EB1FCC6A5932}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -783,10 +753,10 @@
         <v>44988</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1232,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA1E033-DEB2-4407-B59A-943E5C8E6E0B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1260,8 +1230,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
+      <c r="A2" s="4">
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -1274,8 +1244,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
+      <c r="A3" s="4">
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1288,8 +1258,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
+      <c r="A4" s="4">
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -1299,8 +1269,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
+      <c r="A5" s="4">
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1310,8 +1280,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>51</v>
+      <c r="A6" s="4">
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
